--- a/Question_Set2/Programming skills/Drupal.xlsx
+++ b/Question_Set2/Programming skills/Drupal.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are working on a user profile page and want to display the user\'s credit score through REST API on a separate tab right next to the user\'s view (as shown in the image below). The route name is defined as "tt_users.credit_score" in a custom module “tt_users.”How should you create a custom tab to display on the user profile page?', 'ques_type': 2, 'options': ['Create tt_users.links.task.yml and write the following code:tt_users.credit_score_tab:\n route_name: tt_users.credit_score\n base_route: entity.user.canonical\n title: \'Credit score\'\n', 'Create tt_users.links.action.yml and write the following code:tt_users.credit_score_tab:\n route_name: tt_users.credit_score\n title: \'Credit score\'\n appears_on:\n   - entity.user.canonical\n', 'Create tt_users.menu.yml and write the following code:tt_users.credit_score_tab:\n title: \'Credit score\'\n route_name: tt_users.credit_score\n parent: entity.user.canonical\n', 'Create tt_users.contextual.yml and write the following code:tt_users.credit_score_tab:\n route_name: tt_users.credit_score\n group: user\n title: \'Credit score\'\n'], 'score': "Create tt_users.links.task.yml and write the following code:tt_users.credit_score_tab:\n route_name: tt_users.credit_score\n base_route: entity.user.canonical\n title: 'Credit score'"}, {'title': 'You are developing a custom theme for a Drupal 9 site. You registered a theme hook named entity_slider in your custom theme, and you now want to provide a default preprocessor for this theme hook in your custom theme.  Which of the following is the correct syntax for this preprocessor function?', 'ques_type': 2, 'options': ['function template_preprocess_entity_slider(&amp;amp$variables) {\n// Prepare variables.\n}\n', 'function template_preprocess_entity_slider($variables) {\n// Prepare variables.\n}\n', 'function hook_preprocess_entity_slider(&amp;amp$variables) {\n// Prepare variables.\n}\n', 'function hook_preprocess_entity_slider($variables) {\n// Prepare variables.\n}\n'], 'score': 'function template_preprocess_entity_slider(&amp;amp$variables) {\n// Prepare variables.\n}'}, {'title': 'You are working on a medical research website with a "research" content type that includes an entity reference field field_disease to reference the "disease" content type. You want to show a list of all research nodes referenced to a disease on the disease node.How should you implement this functionality?', 'ques_type': 2, 'options': ['Create a view of the research nodes as a block type, add a relationship to field_disease of the disease node, add a contextual filter, and add the block to the disease node.', 'Create a view of the disease node as a block type, add a relationship to the research nodes, add a contextual filter, and add the block to the disease node.', 'Create a view of the research nodes as a block type with field_disease, and add the block to the disease node.', 'Create a view of the research nodes as a block type, add a relationship to field_disease, and add filter criteria as content type to disease.'], 'score': 'Create a view of the research nodes as a block type, add a relationship to field_disease of the disease node, add a contextual filter, and add the block to the disease node.'}, {'title': 'While updating a Drupal 9 site, you want to get the list of all the outdated contributed modules along with the current version and the latest available version of each module using composer.Which of the following is the correct composer command to perform this task?', 'ques_type': 2, 'options': ['composer outdated drupal/*', 'composer outdated modules', 'composer outdated module-list', 'composer outdated *'], 'score': 'composer outdated drupal/*'}]</t>
+    <t>questions = [
+    {
+        "title": "You are working on a user profile page and want to display the user's credit score through REST API on a separate tab right next to the user's view (as shown in the image below). The route name is defined as \"tt_users.credit_score\" in a custom module \u201ctt_users.\u201dHow should you create a custom tab to display on the user profile page?",
+        "ques_type": 2,
+        "options": [
+            "Create tt_users.links.task.yml and write the following code:tt_users.credit_score_tab:\n route_name: tt_users.credit_score\n base_route: entity.user.canonical\n title: 'Credit score'\n",
+            "Create tt_users.links.action.yml and write the following code:tt_users.credit_score_tab:\n route_name: tt_users.credit_score\n title: 'Credit score'\n appears_on:\n   - entity.user.canonical\n",
+            "Create tt_users.menu.yml and write the following code:tt_users.credit_score_tab:\n title: 'Credit score'\n route_name: tt_users.credit_score\n parent: entity.user.canonical\n",
+            "Create tt_users.contextual.yml and write the following code:tt_users.credit_score_tab:\n route_name: tt_users.credit_score\n group: user\n title: 'Credit score'\n"
+        ],
+        "score": "Create tt_users.links.task.yml and write the following code:tt_users.credit_score_tab:\n route_name: tt_users.credit_score\n base_route: entity.user.canonical\n title: 'Credit score'"
+    },
+    {
+        "title": "You are developing a custom theme for a Drupal 9 site. You registered a theme hook named entity_slider in your custom theme, and you now want to provide a default preprocessor for this theme hook in your custom theme.  Which of the following is the correct syntax for this preprocessor function?",
+        "ques_type": 2,
+        "options": [
+            "function template_preprocess_entity_slider(&amp;amp$variables) {\n// Prepare variables.\n}\n",
+            "function template_preprocess_entity_slider($variables) {\n// Prepare variables.\n}\n",
+            "function hook_preprocess_entity_slider(&amp;amp$variables) {\n// Prepare variables.\n}\n",
+            "function hook_preprocess_entity_slider($variables) {\n// Prepare variables.\n}\n"
+        ],
+        "score": "function template_preprocess_entity_slider(&amp;amp$variables) {\n// Prepare variables.\n}"
+    },
+    {
+        "title": "You are working on a medical research website with a \"research\" content type that includes an entity reference field field_disease to reference the \"disease\" content type. You want to show a list of all research nodes referenced to a disease on the disease node.How should you implement this functionality?",
+        "ques_type": 2,
+        "options": [
+            "Create a view of the research nodes as a block type, add a relationship to field_disease of the disease node, add a contextual filter, and add the block to the disease node.",
+            "Create a view of the disease node as a block type, add a relationship to the research nodes, add a contextual filter, and add the block to the disease node.",
+            "Create a view of the research nodes as a block type with field_disease, and add the block to the disease node.",
+            "Create a view of the research nodes as a block type, add a relationship to field_disease, and add filter criteria as content type to disease."
+        ],
+        "score": "Create a view of the research nodes as a block type, add a relationship to field_disease of the disease node, add a contextual filter, and add the block to the disease node."
+    },
+    {
+        "title": "While updating a Drupal 9 site, you want to get the list of all the outdated contributed modules along with the current version and the latest available version of each module using composer.Which of the following is the correct composer command to perform this task?",
+        "ques_type": 2,
+        "options": [
+            "composer outdated drupal/*",
+            "composer outdated modules",
+            "composer outdated module-list",
+            "composer outdated *"
+        ],
+        "score": "composer outdated drupal/*"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
